--- a/data/time_series/discount_rate_data.xlsx
+++ b/data/time_series/discount_rate_data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\Projects\UPS_MV-git\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1BAA64-D73B-4359-9CA2-465E261B91C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3387ACBF-B903-4794-A1BE-5668B4773227}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pension" sheetId="1" r:id="rId1"/>
     <sheet name="Retirement" sheetId="3" r:id="rId2"/>
     <sheet name="IBT" sheetId="4" r:id="rId3"/>
+    <sheet name="irr_nisa" sheetId="5" r:id="rId4"/>
+    <sheet name="irr" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -52,11 +53,20 @@
   <si>
     <t>% OAS Change</t>
   </si>
+  <si>
+    <t>IBT</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,11 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41A02EC-9B1E-4485-9FA4-0AB3760F12D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,11 +2898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368D8DEE-3900-4389-A72D-B1F11D6AAFEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5336,11 +5346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B678B8F2-0DD2-4F34-8EE9-C04C9003C42E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7922,4 +7932,3033 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>40178</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5.9958602487179755E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.0766152048122551E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.9373123582859025E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>40209</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.8975112270598769E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.9889733082435857E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.8108538684438049E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>40237</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.9820468489134804E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.0805674237614619E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.8851723726684145E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>40268</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6.010068041660202E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.1084834366580687E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.9173251114503944E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>40298</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.7504379548588683E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.8428056192694505E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.659335501090685E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>40329</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.8669696586633673E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.9525315796559314E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.7778960250380616E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>40359</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5.5229636960080486E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.6037167729211974E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.4369265035546524E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>40390</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5.4126018602298535E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.5100282549164742E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.3009424513763476E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>40421</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.0729262070016552E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.1637074387136474E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.9522455280181829E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>40451</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5.1362537306946059E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.2342520733496635E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.0174015567588819E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>40482</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5.3799602493773385E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.5009618894980059E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.2376493266352159E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>40512</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.438889504132996E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.5442480197539702E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.3174576647553394E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>40543</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5.5024000980962801E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.5921681374019303E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5.4150249779032336E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>40574</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5.7236853827790042E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.8298325926323301E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5.6151735344717568E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>40602</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5.582172695037816E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.678965301160576E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.4771241785176512E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>40633</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5.6830965196637072E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.781938914509089E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.5756745726720257E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>40663</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5.5110681491997451E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.6138686648872692E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.3957910724493054E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>40694</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.3994873605094376E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.5038146627715903E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.2774945594301577E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>40724</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5.5907104520119384E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.6964009504349704E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.4702757789405296E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>40755</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5.3421287232126059E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.4456460574872904E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5.2150712126976341E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>40786</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5.2363399434895402E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.3336955941003884E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.1048597737613804E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>40816</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4.8888532826510712E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.9422093826551418E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.831461359849068E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>40847</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4.8505467951343056E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.912384218405455E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.7813634186443604E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>40877</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4.8204952098376157E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.867587732620144E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.7604076603292383E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>40908</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4.5419860480377619E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.5921824969887615E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.4737532164110645E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>40939</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4.5550954555517845E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4.6256790672312101E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4.4451299053197613E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>40968</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4.527140617294606E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.6022506166328921E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.4144064702514758E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>40999</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4.7086829505097398E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.7863382248285312E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.6049098320740285E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>41029</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4.5820712735370472E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.6669483171600662E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.453949306892617E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>41060</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4.4046846532961703E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.4787861249954708E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.2810401730032512E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>41090</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4.1572615184904814E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4.2325490934414622E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4.0526145286765382E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>41121</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3.7855245989780031E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.852442588896185E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.6913040533308052E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>41152</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3.844032683458317E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.9188260993084215E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.7328469229279834E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>41182</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3.9244428829173471E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.0042306023431264E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.8097945965817497E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>41213</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3.8066709521272814E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.8865233808591436E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.6866999023035363E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>41243</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3.8806948501277673E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3.9650720250365826E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3.7547695193333418E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>41274</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4.0064107944088968E-2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4.0961875128061209E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.8742168068917164E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>41305</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4.2537444066970576E-2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.3464594803076406E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4.1344393782179086E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>41333</v>
+      </c>
+      <c r="B40" s="5">
+        <v>4.1993510741736587E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4.2953053379808329E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4.0746213411117262E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>41364</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4.262578976161488E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4.3615611406528899E-2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4.134286624424096E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41394</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4.0219783219046415E-2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4.1159595061295712E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3.8946202398138202E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>41425</v>
+      </c>
+      <c r="B43" s="5">
+        <v>4.4403085384813294E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4.5376358887604995E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4.3214302040330999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>41455</v>
+      </c>
+      <c r="B44" s="5">
+        <v>4.7650953999260046E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4.8594272301754879E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4.6516449633027236E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>41486</v>
+      </c>
+      <c r="B45" s="5">
+        <v>4.7544623388683378E-2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4.8488360138480596E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4.6447070379006493E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41517</v>
+      </c>
+      <c r="B46" s="5">
+        <v>4.79007890420486E-2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4.8785212649688797E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4.6884679345558122E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>41547</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4.8305466756260962E-2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4.9331531050089458E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4.7065296060843351E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>41578</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4.7065376069336681E-2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4.811373359766305E-2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4.5742495053390127E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>41608</v>
+      </c>
+      <c r="B49" s="5">
+        <v>4.8161239059419179E-2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4.9221726686561801E-2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4.6850912703044992E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4.8604997611798761E-2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4.9593424305822628E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4.7377182255618676E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>41670</v>
+      </c>
+      <c r="B51" s="5">
+        <v>4.5836659609855973E-2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4.6760600043537E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.4657034689719002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>41698</v>
+      </c>
+      <c r="B52" s="5">
+        <v>4.4918405818127227E-2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4.5825294561784753E-2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4.3739378436393521E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>41729</v>
+      </c>
+      <c r="B53" s="5">
+        <v>4.4535039921924528E-2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4.5357516352346236E-2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.3463410890068555E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>41759</v>
+      </c>
+      <c r="B54" s="5">
+        <v>4.3518562518675814E-2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4.4321060457204811E-2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.2458529590293385E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>41790</v>
+      </c>
+      <c r="B55" s="5">
+        <v>4.2282464341877199E-2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4.3116152227103507E-2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4.1131012176365063E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>41820</v>
+      </c>
+      <c r="B56" s="5">
+        <v>4.2377441885695553E-2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>4.3177472286105842E-2</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4.1266356864013504E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>41851</v>
+      </c>
+      <c r="B57" s="5">
+        <v>4.2421387824804237E-2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4.3175270955007922E-2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4.1372697565380763E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>41882</v>
+      </c>
+      <c r="B58" s="5">
+        <v>4.0301390801520717E-2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4.1016625511809797E-2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3.9259392846948883E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>41912</v>
+      </c>
+      <c r="B59" s="5">
+        <v>4.2394144253352271E-2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4.3119757694373942E-2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.1360650498442515E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>41943</v>
+      </c>
+      <c r="B60" s="5">
+        <v>4.1356528146489227E-2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4.2060788376225344E-2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4.0365544295903298E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>41973</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4.0205305482667236E-2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4.0898737012641066E-2</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3.9217690288742828E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>42004</v>
+      </c>
+      <c r="B62" s="5">
+        <v>3.919789575059239E-2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3.9800210274805535E-2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3.8305842598427252E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>42035</v>
+      </c>
+      <c r="B63" s="5">
+        <v>3.4819326663557505E-2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3.5344292285328427E-2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3.4128321173775476E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>42063</v>
+      </c>
+      <c r="B64" s="5">
+        <v>3.7452747397021549E-2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3.8039187878773237E-2</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3.6619421499763091E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>42094</v>
+      </c>
+      <c r="B65" s="5">
+        <v>3.7293815923801162E-2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3.7885225195019967E-2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3.6477751291597749E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>42124</v>
+      </c>
+      <c r="B66" s="5">
+        <v>3.9159301240650195E-2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3.9841682565570906E-2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3.8181838397795598E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>42155</v>
+      </c>
+      <c r="B67" s="5">
+        <v>4.0701082009890463E-2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4.144731476846119E-2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3.9657805529017036E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>42185</v>
+      </c>
+      <c r="B68" s="5">
+        <v>4.3566443489740966E-2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4.4348745224919016E-2</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4.2484700768346796E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>42216</v>
+      </c>
+      <c r="B69" s="5">
+        <v>4.2359081923037965E-2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4.3089654009619456E-2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4.1315211135047533E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>42247</v>
+      </c>
+      <c r="B70" s="5">
+        <v>4.3214715245197162E-2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4.3933118809791047E-2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4.2218596500522239E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>42277</v>
+      </c>
+      <c r="B71" s="5">
+        <v>4.2963190892335641E-2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4.3740275301698266E-2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4.1867577651068202E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>42308</v>
+      </c>
+      <c r="B72" s="5">
+        <v>4.2623545625798058E-2</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4.3387175328554427E-2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4.1505192853845733E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B73" s="5">
+        <v>4.2632606266854264E-2</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4.3386535997064074E-2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>4.1534184578164102E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>42369</v>
+      </c>
+      <c r="B74" s="5">
+        <v>4.309737605208086E-2</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4.3817822033915821E-2</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4.2027035650888264E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>42400</v>
+      </c>
+      <c r="B75" s="5">
+        <v>4.2974691735866967E-2</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4.3742896283523666E-2</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4.1829062444323294E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>42429</v>
+      </c>
+      <c r="B76" s="5">
+        <v>4.1615538023343154E-2</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4.2329625149043912E-2</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4.053435881670385E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>42460</v>
+      </c>
+      <c r="B77" s="5">
+        <v>3.9388198641679709E-2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4.0103520855883153E-2</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3.827856820948803E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>42490</v>
+      </c>
+      <c r="B78" s="5">
+        <v>3.8165914166777538E-2</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3.8886773049897301E-2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3.7011730933458373E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>42521</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3.8411351668635345E-2</v>
+      </c>
+      <c r="C79" s="2">
+        <v>3.9110806013152602E-2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3.7288431123979809E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>42551</v>
+      </c>
+      <c r="B80" s="5">
+        <v>3.6258343616915926E-2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3.6993122962762338E-2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3.5018530931696733E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>42582</v>
+      </c>
+      <c r="B81" s="5">
+        <v>3.5022168876580814E-2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3.5724097595443254E-2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3.381000808775847E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>42613</v>
+      </c>
+      <c r="B82" s="5">
+        <v>3.4735748960519779E-2</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3.5379468418596786E-2</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3.3634054517842182E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>42643</v>
+      </c>
+      <c r="B83" s="5">
+        <v>3.5731533497228039E-2</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3.6394067488043746E-2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3.4620000402350082E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>42674</v>
+      </c>
+      <c r="B84" s="5">
+        <v>3.770532983686458E-2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3.8409442816748698E-2</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3.6550509196102962E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>42704</v>
+      </c>
+      <c r="B85" s="5">
+        <v>4.1205852733811124E-2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4.1872828878626873E-2</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4.0177859535502965E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>42735</v>
+      </c>
+      <c r="B86" s="5">
+        <v>4.117587794641403E-2</v>
+      </c>
+      <c r="C86" s="2">
+        <v>4.1782438844646413E-2</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4.0259764716567205E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>42766</v>
+      </c>
+      <c r="B87" s="5">
+        <v>4.1290216539631296E-2</v>
+      </c>
+      <c r="C87" s="2">
+        <v>4.1896753523956637E-2</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4.0368373851340261E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>42794</v>
+      </c>
+      <c r="B88" s="5">
+        <v>4.0088662098920591E-2</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4.0676172200833402E-2</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3.919088003415571E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>42825</v>
+      </c>
+      <c r="B89" s="5">
+        <v>4.0872803383942016E-2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>4.1465656744799954E-2</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.9980793467419437E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>42855</v>
+      </c>
+      <c r="B90" s="5">
+        <v>4.0141567754860934E-2</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4.0760557224451467E-2</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3.9195251728654276E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>42886</v>
+      </c>
+      <c r="B91" s="5">
+        <v>3.8870758060095954E-2</v>
+      </c>
+      <c r="C91" s="2">
+        <v>3.9466157434369958E-2</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3.7936084019695199E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>42916</v>
+      </c>
+      <c r="B92" s="5">
+        <v>3.8493704439470464E-2</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3.9022978866186178E-2</v>
+      </c>
+      <c r="D92" s="2">
+        <v>3.7661253236718803E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>42947</v>
+      </c>
+      <c r="B93" s="5">
+        <v>3.8367893639637315E-2</v>
+      </c>
+      <c r="C93" s="2">
+        <v>3.8929641238953427E-2</v>
+      </c>
+      <c r="D93" s="2">
+        <v>3.7487979555066858E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>42978</v>
+      </c>
+      <c r="B94" s="5">
+        <v>3.7252902292602787E-2</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3.7804480535430028E-2</v>
+      </c>
+      <c r="D94" s="2">
+        <v>3.6350185011916641E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43008</v>
+      </c>
+      <c r="B95" s="5">
+        <v>3.7997806788925337E-2</v>
+      </c>
+      <c r="C95" s="2">
+        <v>3.8512107834099647E-2</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3.7177072025696513E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43039</v>
+      </c>
+      <c r="B96" s="5">
+        <v>3.7666003175132752E-2</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3.8148595417746206E-2</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3.6897454274481087E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43069</v>
+      </c>
+      <c r="B97" s="5">
+        <v>3.7549580819555388E-2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3.7986932624627046E-2</v>
+      </c>
+      <c r="D97" s="2">
+        <v>3.6848131938340231E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>43100</v>
+      </c>
+      <c r="B98" s="5">
+        <v>3.5951755990634639E-2</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3.6306016004566857E-2</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3.5374275193945752E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43131</v>
+      </c>
+      <c r="B99" s="5">
+        <v>3.7906183545143982E-2</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3.82126296714198E-2</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3.7410178061711014E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43159</v>
+      </c>
+      <c r="B100" s="5">
+        <v>4.0009686410472152E-2</v>
+      </c>
+      <c r="C100" s="2">
+        <v>4.0323150563401418E-2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3.9513014919572126E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43190</v>
+      </c>
+      <c r="B101" s="5">
+        <v>3.9514647578227313E-2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3.9795873850762511E-2</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3.9053279094311777E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43220</v>
+      </c>
+      <c r="B102" s="5">
+        <v>4.0666447256792276E-2</v>
+      </c>
+      <c r="C102" s="2">
+        <v>4.093583317839844E-2</v>
+      </c>
+      <c r="D102" s="2">
+        <v>4.0220387718526873E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>43251</v>
+      </c>
+      <c r="B103" s="5">
+        <v>4.0194761870794911E-2</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4.0465344716069572E-2</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3.9774036149480434E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>43281</v>
+      </c>
+      <c r="B104" s="5">
+        <v>4.1469308682038741E-2</v>
+      </c>
+      <c r="C104" s="2">
+        <v>4.1735538775974142E-2</v>
+      </c>
+      <c r="D104" s="2">
+        <v>4.1090356590848753E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>43312</v>
+      </c>
+      <c r="B105" s="5">
+        <v>4.1318768338324305E-2</v>
+      </c>
+      <c r="C105" s="2">
+        <v>4.1556642183804164E-2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>4.1002785937992704E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>43343</v>
+      </c>
+      <c r="B106" s="5">
+        <v>4.0781133680267825E-2</v>
+      </c>
+      <c r="C106" s="2">
+        <v>4.1045976693750499E-2</v>
+      </c>
+      <c r="D106" s="2">
+        <v>4.0408045986163252E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>43373</v>
+      </c>
+      <c r="B107" s="5">
+        <v>4.202195144068846E-2</v>
+      </c>
+      <c r="C107" s="2">
+        <v>4.2267564199238702E-2</v>
+      </c>
+      <c r="D107" s="2">
+        <v>4.1694254056844265E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>43404</v>
+      </c>
+      <c r="B108" s="5">
+        <v>4.4370577291571248E-2</v>
+      </c>
+      <c r="C108" s="2">
+        <v>4.4684759032351473E-2</v>
+      </c>
+      <c r="D108" s="2">
+        <v>4.3941666939012289E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>43434</v>
+      </c>
+      <c r="B109" s="5">
+        <v>4.4469626380813358E-2</v>
+      </c>
+      <c r="C109" s="2">
+        <v>4.4801790618529999E-2</v>
+      </c>
+      <c r="D109" s="2">
+        <v>4.3994959877691496E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>43465</v>
+      </c>
+      <c r="B110" s="5">
+        <v>4.2303983278140736E-2</v>
+      </c>
+      <c r="C110" s="2">
+        <v>4.2621259477341585E-2</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4.1863362760699796E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>43496</v>
+      </c>
+      <c r="B111" s="5">
+        <v>4.1188689505476266E-2</v>
+      </c>
+      <c r="C111" s="2">
+        <v>4.1570195610854094E-2</v>
+      </c>
+      <c r="D111" s="2">
+        <v>4.0621859149379061E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>43524</v>
+      </c>
+      <c r="B112" s="5">
+        <v>4.1417153030837192E-2</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4.1801762866447927E-2</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4.0861407649361553E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>43555</v>
+      </c>
+      <c r="B113" s="5">
+        <v>3.8474683742343023E-2</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3.8866465783638733E-2</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3.7848133089877022E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B114" s="5">
+        <v>3.9226832037958285E-2</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3.9634623126717936E-2</v>
+      </c>
+      <c r="D114" s="2">
+        <v>3.8595488395962226E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>43616</v>
+      </c>
+      <c r="B115" s="5">
+        <v>3.699112458522235E-2</v>
+      </c>
+      <c r="C115" s="2">
+        <v>3.7410483458343878E-2</v>
+      </c>
+      <c r="D115" s="2">
+        <v>3.6287506042318951E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>43646</v>
+      </c>
+      <c r="B116" s="5">
+        <v>3.5368933228591665E-2</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3.5804885960365615E-2</v>
+      </c>
+      <c r="D116" s="2">
+        <v>3.4643210961078127E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>43677</v>
+      </c>
+      <c r="B117" s="5">
+        <v>3.4635113651787772E-2</v>
+      </c>
+      <c r="C117" s="2">
+        <v>3.5055479089097896E-2</v>
+      </c>
+      <c r="D117" s="2">
+        <v>3.3912794879021518E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>43708</v>
+      </c>
+      <c r="B118" s="5">
+        <v>3.0322505844154211E-2</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3.0693542251896543E-2</v>
+      </c>
+      <c r="D118" s="2">
+        <v>2.9675170142892955E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>43738</v>
+      </c>
+      <c r="B119" s="5">
+        <v>3.1716834229662198E-2</v>
+      </c>
+      <c r="C119" s="2">
+        <v>3.2091448107936148E-2</v>
+      </c>
+      <c r="D119" s="2">
+        <v>3.1094739166189819E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B120" s="5">
+        <v>3.1712229581424355E-2</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3.2118964066356531E-2</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3.1049092613651533E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>43799</v>
+      </c>
+      <c r="B121" s="5">
+        <v>3.1696518707812885E-2</v>
+      </c>
+      <c r="C121" s="2">
+        <v>3.2060082279795211E-2</v>
+      </c>
+      <c r="D121" s="2">
+        <v>3.1101420277173907E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B122" s="5">
+        <v>3.2874961283294979E-2</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3.3274882226018057E-2</v>
+      </c>
+      <c r="D122" s="2">
+        <v>3.2221183769555656E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>43861</v>
+      </c>
+      <c r="B123" s="5">
+        <v>2.9430943987563456E-2</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2.9821884895594338E-2</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2.8755665923079293E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>43890</v>
+      </c>
+      <c r="B124" s="5">
+        <v>2.7864719034481289E-2</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2.8277702181203075E-2</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2.713091848653134E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>43921</v>
+      </c>
+      <c r="B125" s="5">
+        <v>3.4453786494283094E-2</v>
+      </c>
+      <c r="C125" s="2">
+        <v>3.4765386118263748E-2</v>
+      </c>
+      <c r="D125" s="2">
+        <v>3.4051606715696077E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B126" s="5">
+        <v>3.0233659237486894E-2</v>
+      </c>
+      <c r="C126" s="2">
+        <v>3.0667940286290111E-2</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2.9494651540148489E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B127" s="5">
+        <v>2.9048964359657214E-2</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2.9639462074292328E-2</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2.8042120362769735E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B128" s="5">
+        <v>2.7980427798540437E-2</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2.8567758999948022E-2</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2.6982285522156403E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B129" s="5">
+        <v>2.4008201138772365E-2</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2.453140955799105E-2</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2.303755773637238E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2.7005763014887336E-2</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2.761670519877344E-2</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2.5953478896251336E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B131" s="5">
+        <v>2.7274114601177145E-2</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2.7889349258301034E-2</v>
+      </c>
+      <c r="D131" s="2">
+        <v>2.6214019612872546E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>44135</v>
+      </c>
+      <c r="B132" s="5">
+        <v>2.8832843335429521E-2</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2.9494216273876103E-2</v>
+      </c>
+      <c r="D132" s="2">
+        <v>2.7685410040032984E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B133" s="5">
+        <v>2.619709066499248E-2</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2.677190465163394E-2</v>
+      </c>
+      <c r="D133" s="2">
+        <v>2.5187221428087488E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>44196</v>
+      </c>
+      <c r="B134" s="5">
+        <v>2.6022216051393449E-2</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2.6578521715053451E-2</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2.5079192240500214E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>44227</v>
+      </c>
+      <c r="B135" s="5">
+        <v>2.7731812151749923E-2</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2.8325052048244724E-2</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2.6735516418243316E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B136" s="5">
+        <v>3.02393054704004E-2</v>
+      </c>
+      <c r="C136" s="2">
+        <v>3.0837660766891734E-2</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2.9326603896804044E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>44286</v>
+      </c>
+      <c r="B137" s="5">
+        <v>3.2509795806268817E-2</v>
+      </c>
+      <c r="C137" s="2">
+        <v>3.3079389359598602E-2</v>
+      </c>
+      <c r="D137" s="2">
+        <v>3.1734966220694265E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B138" s="5">
+        <v>3.1130637566079082E-2</v>
+      </c>
+      <c r="C138" s="2">
+        <v>3.1692588832152001E-2</v>
+      </c>
+      <c r="D138" s="2">
+        <v>3.032912146080409E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>44347</v>
+      </c>
+      <c r="B139" s="5">
+        <v>3.0762337380038966E-2</v>
+      </c>
+      <c r="C139" s="2">
+        <v>3.1336623735777058E-2</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2.9939119130373136E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B140" s="5">
+        <v>2.8553696424146322E-2</v>
+      </c>
+      <c r="C140" s="2">
+        <v>2.9040376139904234E-2</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2.78278714322466E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>44408</v>
+      </c>
+      <c r="B141" s="5">
+        <v>2.7088428184760174E-2</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2.7584320274674407E-2</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2.6311625535204594E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>44439</v>
+      </c>
+      <c r="B142" s="5">
+        <v>2.7606872290001874E-2</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2.8088587746339745E-2</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2.6871950715740982E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>44469</v>
+      </c>
+      <c r="B143" s="7">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="C143" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="D143" s="2">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B2">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B3">
+        <v>4.8851153635294041E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.9093236496019203E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.7366994569141264E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B4">
+        <v>4.7455245037516795E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.7665469359014306E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.600286242179874E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B5">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B6">
+        <v>4.3992140434594783E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.4572898985161008E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.3122489979540712E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B7">
+        <v>4.4315357364001592E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.4877835292304775E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.346103787785352E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B8">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.0599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B9">
+        <v>3.9897858962699546E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.0265216873626934E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.9221543431390553E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B10">
+        <v>3.9931161505142601E-2</v>
+      </c>
+      <c r="C10">
+        <v>4.0260754166585921E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.9382476817971759E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B11">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.02E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B12">
+        <v>4.1705457382030936E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.2232318803501132E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.0980291838718153E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B13">
+        <v>4.48E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B14">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B15">
+        <v>4.4597549945384569E-2</v>
+      </c>
+      <c r="C15">
+        <v>4.510071265525914E-2</v>
+      </c>
+      <c r="D15">
+        <v>4.389708729633298E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B16">
+        <v>4.3378518635349042E-2</v>
+      </c>
+      <c r="C16">
+        <v>4.3872135456713604E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.2665992639938727E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B17">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="C17">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B18">
+        <v>4.3339196097317664E-2</v>
+      </c>
+      <c r="C18">
+        <v>4.3857176352947849E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.2673153340285923E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B19">
+        <v>4.2169177156466509E-2</v>
+      </c>
+      <c r="C19">
+        <v>4.2664228419106255E-2</v>
+      </c>
+      <c r="D19">
+        <v>4.1526434404491587E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B20">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B21">
+        <v>4.0789968780039709E-2</v>
+      </c>
+      <c r="C21">
+        <v>4.1212328493481484E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.0251759091500215E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B22">
+        <v>3.9889255441623875E-2</v>
+      </c>
+      <c r="C22">
+        <v>4.0308617030021685E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.9320507562816923E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B23">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="C23">
+        <v>4.07E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B24">
+        <v>3.9891948511617439E-2</v>
+      </c>
+      <c r="C24">
+        <v>4.0266023018670688E-2</v>
+      </c>
+      <c r="D24">
+        <v>3.9635394077231101E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B25">
+        <v>3.9905869156692149E-2</v>
+      </c>
+      <c r="C25">
+        <v>4.0232663077605757E-2</v>
+      </c>
+      <c r="D25">
+        <v>3.9767015082352565E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B26">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="C26">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>3.8199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B27">
+        <v>4.0562973162394551E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.0617936438227482E-2</v>
+      </c>
+      <c r="D27">
+        <v>4.0178116901478156E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B28">
+        <v>4.2822433182052359E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.2882072096180342E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.245781568894004E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B29">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C29">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D29">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B30">
+        <v>4.282165329182884E-2</v>
+      </c>
+      <c r="C30">
+        <v>4.2812834735013176E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.2451904293764137E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B31">
+        <v>4.2246050008553429E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.2247673778828834E-2</v>
+      </c>
+      <c r="D31">
+        <v>4.1866596850818026E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B32">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="C32">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="D32">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B33">
+        <v>4.3813512393949143E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.3795461780044072E-2</v>
+      </c>
+      <c r="D33">
+        <v>4.3647706912586709E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B34">
+        <v>4.3454850371869358E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.3460211640645396E-2</v>
+      </c>
+      <c r="D34">
+        <v>4.323693225367773E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B35">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="C35">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="D35">
+        <v>4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B36">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="C36">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="D36">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B37">
+        <v>4.7373186573177788E-2</v>
+      </c>
+      <c r="C37">
+        <v>4.707815718379451E-2</v>
+      </c>
+      <c r="D37">
+        <v>4.6656289955308711E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B38">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C38">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D38">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B39">
+        <v>4.3604784783610351E-2</v>
+      </c>
+      <c r="C39">
+        <v>4.365604318718385E-2</v>
+      </c>
+      <c r="D39">
+        <v>4.3055245047731595E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B40">
+        <v>4.4082899887221867E-2</v>
+      </c>
+      <c r="C40">
+        <v>4.4139546137821249E-2</v>
+      </c>
+      <c r="D40">
+        <v>4.3531566410682836E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B41">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="C41">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="D41">
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B42">
+        <v>4.2004620594577637E-2</v>
+      </c>
+      <c r="C42">
+        <v>4.2115476139573095E-2</v>
+      </c>
+      <c r="D42">
+        <v>4.1489864069518163E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B43">
+        <v>3.9760904206093781E-2</v>
+      </c>
+      <c r="C43">
+        <v>3.9870583792531E-2</v>
+      </c>
+      <c r="D43">
+        <v>3.9221451775881204E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B44">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="C44">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="D44">
+        <v>3.73E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B45">
+        <v>3.7498752247637247E-2</v>
+      </c>
+      <c r="C45">
+        <v>3.748182990029094E-2</v>
+      </c>
+      <c r="D45">
+        <v>3.6611791938189267E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B46">
+        <v>3.3141569440769986E-2</v>
+      </c>
+      <c r="C46">
+        <v>3.3088949120622699E-2</v>
+      </c>
+      <c r="D46">
+        <v>3.2323487297099343E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B47">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="C47">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="D47">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B48">
+        <v>3.4192513828647506E-2</v>
+      </c>
+      <c r="C48">
+        <v>3.421720940868235E-2</v>
+      </c>
+      <c r="D48">
+        <v>3.3142277411032026E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B49">
+        <v>3.4207848896413914E-2</v>
+      </c>
+      <c r="C49">
+        <v>3.4196812797862353E-2</v>
+      </c>
+      <c r="D49">
+        <v>3.3256110978756206E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B50">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="C50">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="D50">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B51">
+        <v>3.3385011571345984E-2</v>
+      </c>
+      <c r="C51">
+        <v>3.4283330894466051E-2</v>
+      </c>
+      <c r="D51">
+        <v>3.2060660122441811E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B52">
+        <v>3.1815536906984486E-2</v>
+      </c>
+      <c r="C52">
+        <v>3.2726530029998036E-2</v>
+      </c>
+      <c r="D52">
+        <v>3.0440818338531187E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B53">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="C53">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D53">
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B54">
+        <v>3.4968720647309534E-2</v>
+      </c>
+      <c r="C54">
+        <v>3.5379670996363008E-2</v>
+      </c>
+      <c r="D54">
+        <v>3.2263135185889566E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B55">
+        <v>3.4643984803571316E-2</v>
+      </c>
+      <c r="C55">
+        <v>3.5160823089304225E-2</v>
+      </c>
+      <c r="D55">
+        <v>3.1678761714792669E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B56">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="C56">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D56">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B57">
+        <v>2.8949733525614862E-2</v>
+      </c>
+      <c r="C57">
+        <v>3.0089021513417358E-2</v>
+      </c>
+      <c r="D57">
+        <v>2.7116463022710098E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B58">
+        <v>3.2316541812770161E-2</v>
+      </c>
+      <c r="C58">
+        <v>3.3546502582302101E-2</v>
+      </c>
+      <c r="D58">
+        <v>3.0313574599253941E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B59">
+        <v>3.32E-2</v>
+      </c>
+      <c r="C59">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D59">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B60">
+        <v>3.4483239645572747E-2</v>
+      </c>
+      <c r="C60">
+        <v>3.5304536617438695E-2</v>
+      </c>
+      <c r="D60">
+        <v>3.2037310216192647E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B61">
+        <v>3.1808909408023223E-2</v>
+      </c>
+      <c r="C61">
+        <v>3.2552993366350508E-2</v>
+      </c>
+      <c r="D61">
+        <v>2.9548787340192752E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B62">
+        <v>2.98E-2</v>
+      </c>
+      <c r="C62">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="D62">
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B63">
+        <v>3.1915186686081003E-2</v>
+      </c>
+      <c r="C63">
+        <v>3.3450267874524875E-2</v>
+      </c>
+      <c r="D63">
+        <v>2.9774773686856732E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B64">
+        <v>3.4504307130046909E-2</v>
+      </c>
+      <c r="C64">
+        <v>3.6045438051028222E-2</v>
+      </c>
+      <c r="D64">
+        <v>3.2444063265233414E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B65">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C65">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="D65">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B66">
+        <v>3.5666389226273194E-2</v>
+      </c>
+      <c r="C66">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="D66">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B67">
+        <v>3.5516854508816725E-2</v>
+      </c>
+      <c r="C67">
+        <v>3.5368552435727174E-2</v>
+      </c>
+      <c r="D67">
+        <v>3.2709440329058599E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B68">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="C68">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="D68">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B69">
+        <v>3.1081783523249425E-2</v>
+      </c>
+      <c r="C69">
+        <v>3.1487226086696816E-2</v>
+      </c>
+      <c r="D69">
+        <v>2.9139093747394231E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B70">
+        <v>3.1572979001821669E-2</v>
+      </c>
+      <c r="C70">
+        <v>3.1968833410359401E-2</v>
+      </c>
+      <c r="D70">
+        <v>2.9659955142324987E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B71">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="C71">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="D71">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>